--- a/data/raw/rvu_synthesis.xlsx
+++ b/data/raw/rvu_synthesis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universiteittwente-my.sharepoint.com/personal/m_sikora_utwente_nl/Documents/Desktop/PhD_Stress-In-Action/01_Database/Dashboard/relational/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxu567\Documents\R\sia.project.1.wi.data\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8FE1228-C429-432C-94A2-C1F64831892C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2F6FAD-E9EB-48BF-9BFC-E47039A30E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12960" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{2C9CAB11-EC45-49EE-BE20-1107D0FD28A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C9CAB11-EC45-49EE-BE20-1107D0FD28A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>n_of_studies</t>
   </si>
   <si>
-    <t>validity and reliability</t>
-  </si>
-  <si>
     <t>parameters_studied</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>date_of_last_search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reliability and validity  </t>
   </si>
 </sst>
 </file>
@@ -145,12 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -487,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AC09CD-A4FA-4E91-BDBC-BF7CF9B4D46E}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,16 +513,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -532,21 +530,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
         <v>45104</v>
       </c>
     </row>
@@ -561,15 +559,15 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3">
         <v>45104</v>
       </c>
     </row>
@@ -578,21 +576,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>45187</v>
       </c>
     </row>
@@ -603,24 +601,21 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3">
         <v>45187</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/rvu_synthesis.xlsx
+++ b/data/raw/rvu_synthesis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29607"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxu567\Documents\R\sia.project.1.wi.data\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2F6FAD-E9EB-48BF-9BFC-E47039A30E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{0D2F6FAD-E9EB-48BF-9BFC-E47039A30E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A863565-2F63-406E-AC86-D3A51A257458}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C9CAB11-EC45-49EE-BE20-1107D0FD28A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,70 +36,170 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="52">
   <si>
     <t>device_id</t>
   </si>
   <si>
+    <t>synthesis_type</t>
+  </si>
+  <si>
+    <t>n_of_studies</t>
+  </si>
+  <si>
+    <t>evidence_level</t>
+  </si>
+  <si>
+    <t>parameters_studied</t>
+  </si>
+  <si>
+    <t>synthesis</t>
+  </si>
+  <si>
+    <t>date_of_last_search</t>
+  </si>
+  <si>
     <t>001_sia_wd_emp</t>
   </si>
   <si>
+    <t xml:space="preserve">reliability and validity  </t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>HF; HR; IBI; ns.SCRs; NS-SCRs-AMP; NS-SCRs-FREQ; RMSSD; S; SCR-AMP; SCRs; SCL; SD1; SD1UP; SD1DOWN; SD2; SDNN ; SDRR</t>
+  </si>
+  <si>
+    <t>Most studies comparing E4 to a reference device (RD) suggest high validity of HR under static and dynamic conditions (one study found opposite results) and often report HRV parameters as valid but only in static conditions, although results seem conclusive only for RMSSD and SDNN. Movement and speech have been shown to result not only in decreased accuracy but also in high amounts of missing data. Missing data was also observed in static conditions and was attributed to issues with E4’s automatic IBI detection. It also appears E4 cannot provide convergently valid EDA (possibly due to differences in device location). However, one study reported high correlation of SCL with an RD despite it measuring from fingers, with yet another study reporting validity of amplitude of SCRs for strong sustained stressors.</t>
+  </si>
+  <si>
+    <t>usability</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>E4 was generally considered easy to use with charging and handling the data reported as burdensome in multiple studies. Adherence was found to be high but results are inconsistent when it comes to wearing comfort.</t>
+  </si>
+  <si>
     <t>002_sia_wd_emp</t>
   </si>
   <si>
-    <t>synthesis_type</t>
-  </si>
-  <si>
-    <t>usability</t>
-  </si>
-  <si>
-    <t>n_of_studies</t>
-  </si>
-  <si>
-    <t>parameters_studied</t>
-  </si>
-  <si>
-    <t>HF; HR; IBI; ns.SCRs; NS-SCRs-AMP; NS-SCRs-FREQ; RMSSD; S; SCR-AMP; SCRs; SCL; SD1; SD1UP; SD1DOWN; SD2; SDNN ; SDRR</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>synthesis</t>
-  </si>
-  <si>
-    <t>Most studies comparing E4 to a reference device (RD) suggest high validity of HR under static and dynamic conditions (one study found opposite results) and often report HRV parameters as valid but only in static conditions, although results seem conclusive only for RMSSD and SDNN. Movement and speech have been shown to result not only in decreased accuracy but also in high amounts of missing data. Missing data was also observed in static conditions and was attributed to issues with E4’s automatic IBI detection. It also appears E4 cannot provide convergently valid EDA (possibly due to differences in device location). However, one study reported high correlation of SCL with an RD despite it measuring from fingers, with yet another study reporting validity of amplitude of SCRs for strong sustained stressors.</t>
-  </si>
-  <si>
-    <t>E4 was generally considered easy to use with charging and handling the data reported as burdensome in multiple studies. Adherence was found to be high but results are inconsistent when it comes to wearing comfort.</t>
-  </si>
-  <si>
-    <t>evidence_level</t>
-  </si>
-  <si>
-    <t>external</t>
-  </si>
-  <si>
     <t>internal</t>
   </si>
   <si>
+    <t>SpO2</t>
+  </si>
+  <si>
     <t>Reliable and valid for use in clinical SpO2 measurement under static conditions, for both male and female subjects as well as for different skin tones.</t>
   </si>
   <si>
-    <t>SpO2</t>
-  </si>
-  <si>
-    <t>date_of_last_search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reliability and validity  </t>
+    <t>003_sia_wd_vri</t>
+  </si>
+  <si>
+    <t>IBI; RBI; PEP; LVET; SV; CO; HR</t>
+  </si>
+  <si>
+    <t>Reliable and valid for measuring cardiac parameters using ICG and ECG. Absolute SV and CO values can deviate, especially during activity. 
+Additionally, the VU-AMS 5fs device has been used as a gold standard reference device for various studies.</t>
+  </si>
+  <si>
+    <t>The validation studies showed it is feasible to measure with the VU-AMS device in daily life for 24h.</t>
+  </si>
+  <si>
+    <t>004_sia_wd_vri</t>
+  </si>
+  <si>
+    <t>No validation</t>
+  </si>
+  <si>
+    <t>No validation studies yet. This device is the successor of the VU-AMS 5fs device.</t>
+  </si>
+  <si>
+    <t>005_sia_wd_fit</t>
+  </si>
+  <si>
+    <t>HR, Irregular rhythm notification</t>
+  </si>
+  <si>
+    <t>Good HR detection for sinus rhythm, poor for atrium fibrillation.  Irregular rhythm notification acceptable for guiding decisions regarding atrial fibrillation patients</t>
+  </si>
+  <si>
+    <t>006_sia_wd_bit</t>
+  </si>
+  <si>
+    <t>No validation studies found. Used as reference device in three studies</t>
+  </si>
+  <si>
+    <t>007_sia_wd_bit</t>
+  </si>
+  <si>
+    <t>No validation studies found. Used as reference device in one study</t>
+  </si>
+  <si>
+    <t>008_sia_wd_bit</t>
+  </si>
+  <si>
+    <t>009_sia_wd_our</t>
+  </si>
+  <si>
+    <t>HR; RMSSD; AVNN; pNN50; SDNN; HF; LF; LF:HF ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High validity for HR and RMSSD and acceptable accuracy for nocturnal AVNN, pNN50, HF and SDNN in average-per-night tests with high error rates for LF and LF:HF ratio. </t>
+  </si>
+  <si>
+    <t>compliance</t>
+  </si>
+  <si>
+    <t>Participant compliance was high over several weeks.</t>
+  </si>
+  <si>
+    <t>010_sia_wd_min</t>
+  </si>
+  <si>
+    <t>011_sia_wd_nov</t>
+  </si>
+  <si>
+    <t>DBP; SBP</t>
+  </si>
+  <si>
+    <t>The device is validated according to the AMI/ANSI/ISO 81060-2:2013 standard, ESH-IP revision 2010 and MEDDEV 2.7/1 rev 4 guidelines; and passes all criteria for both the DBP and SBP measures (i.e., for auscullatory and oscillometric measurements).</t>
+  </si>
+  <si>
+    <t>012_sia_wd_car</t>
+  </si>
+  <si>
+    <t>HR;RR;VT;VM;EE;Steps;HMI</t>
+  </si>
+  <si>
+    <t>Strong evidence is present that respiratory rate (RR) and heart rate (HR) can both be validly estimated with Hexoskin Proshirt during a variety of light, moderate, and intense activities, whether controlled or naturalistic. Only two studies one of which were naturalistic showed HR to not correspond with reference device values, and a study had a negative conclusion for RR. The reference devices used to compare the Hexoskin parameters were high-quality too. Overall, the accuracy of HR and RR at high intensity exercises decreased. Multiple studies showed test-retest reliability of HR and RR were high across 3-4 days. Most studies suggest tidal volume and minute volume (as well as inspiratory capacity and inspiratory reserve volume) also have acceptable validity, but this significantly decreases with more intense physical activity. Several studies found the tidal volume and minute volume to be out of alignment with a reference device. Energy expenditure (EE) was found to be invalid in all studies that assessed it. Findings for the accuracy of Steps were very mixed. While approximately half of studies that assessed it determined it is valid, other half of studies found it to be inaccurate. Hip Motion Intensity (HMI) was found to be sufficiently valid in one study.</t>
+  </si>
+  <si>
+    <t>wearability, ease of use; comfort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexoskin is perceived by participants to be highly comfortable when used in a laboratory procedure. It can be used in those with chronic obstructive pulmonary disease when the use duration is several hours. Hexoskin can be preferred over wearable watches in studies involving individuals with dementia as the vest cannot be easily removed. Hexoskin use in an ambulatory study of a week, however, is problematic. Combined with an insufficient intrinsic motivation to wear and the need to repeatedly wet the electrocardiogram sensors, older individuals found it too burdensome to be worn in daily life for longer than a day. </t>
+  </si>
+  <si>
+    <t>013_sia_wd_app</t>
+  </si>
+  <si>
+    <t>014_sia_wd_app</t>
+  </si>
+  <si>
+    <t>015_sia_wd_app</t>
+  </si>
+  <si>
+    <t>No validity/reliability studies were conducted for this version. See Apple Watch Series 8.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +215,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -141,16 +253,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,139 +625,1019 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AC09CD-A4FA-4E91-BDBC-BF7CF9B4D46E}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="32.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3">
         <v>45104</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3">
         <v>45104</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4">
         <v>45187</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:7" s="7" customFormat="1">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="12">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="8">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="12">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="15">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="15">
+      <c r="A11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="15">
+      <c r="A13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="8">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="15">
+      <c r="A15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="15">
+      <c r="A17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="8">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15">
+      <c r="A18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="15">
+      <c r="A19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="8">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15">
+      <c r="A20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="15">
+      <c r="A21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="8">
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15">
+      <c r="A22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="15">
+      <c r="A23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="8">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15">
+      <c r="A24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3">
-        <v>45187</v>
-      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="15">
+      <c r="A25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="8">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15">
+      <c r="A26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="15">
+      <c r="A27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="8">
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15">
+      <c r="A28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="11">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="15">
+      <c r="A29" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="8">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15">
+      <c r="A30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="11">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="15">
+      <c r="A31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="8">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006131D81E7FE36E44885B3A04523FCF5D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3c9ab67dcfa560232a36bfe42a1cf3da">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71842362-ab5d-46b4-b35f-08dc9c6328ce" xmlns:ns3="8def90a7-5747-4395-b698-a599996d7912" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85c6a7f5c224f550ecad7291476c1ef0" ns2:_="" ns3:_="">
+    <xsd:import namespace="71842362-ab5d-46b4-b35f-08dc9c6328ce"/>
+    <xsd:import namespace="8def90a7-5747-4395-b698-a599996d7912"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="71842362-ab5d-46b4-b35f-08dc9c6328ce" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eaf58ba8-1e8d-4aec-a6f5-993f6032dc74" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8def90a7-5747-4395-b698-a599996d7912" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{790f85f4-cb36-4710-b643-af9b7c640f7d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="8def90a7-5747-4395-b698-a599996d7912">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71842362-ab5d-46b4-b35f-08dc9c6328ce">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8def90a7-5747-4395-b698-a599996d7912" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9A84F42-A8B1-4F76-BB4B-71F6EF88BC91}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BD83F4B-232E-4E02-B6ED-D3D698402A30}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1027EDB4-B10E-493E-972E-E8D19E26E691}"/>
 </file>